--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_3_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_3_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_4</t>
+          <t>model_3_9_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9626965267706992</v>
+        <v>0.9407381892041585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7793410750025764</v>
+        <v>0.8093962221387481</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9776561899593282</v>
+        <v>0.8803986067730339</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9237926811030447</v>
+        <v>0.9340106344829123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9684898081476222</v>
+        <v>0.945520530197635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494484972510347</v>
+        <v>0.3962840016673395</v>
       </c>
       <c r="H2" t="n">
-        <v>1.475547247498696</v>
+        <v>1.274568340207888</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2436634333240392</v>
+        <v>0.3300932014232906</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1881009155543261</v>
+        <v>0.407655021248377</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2158822082908794</v>
+        <v>0.3688741769165035</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8809461516137163</v>
+        <v>0.9003522206385277</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4994481927598044</v>
+        <v>0.6295109225957397</v>
       </c>
       <c r="N2" t="n">
-        <v>1.024196847500087</v>
+        <v>1.038440093489194</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5207107363258777</v>
+        <v>0.6563105058378961</v>
       </c>
       <c r="P2" t="n">
-        <v>124.7770056178849</v>
+        <v>123.8512482976956</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.1284309348451</v>
+        <v>198.2026736146559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_3</t>
+          <t>model_3_9_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9625411210744661</v>
+        <v>0.941123533569349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7793307163782859</v>
+        <v>0.8093888479280305</v>
       </c>
       <c r="D3" t="n">
-        <v>0.979094891869728</v>
+        <v>0.8777088113622034</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9240518965830664</v>
+        <v>0.9321875743880444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9696815163759691</v>
+        <v>0.9441406759520513</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2504876958573228</v>
+        <v>0.3937072021229638</v>
       </c>
       <c r="H3" t="n">
-        <v>1.475616515667024</v>
+        <v>1.274617651588912</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2279741195328925</v>
+        <v>0.337516887338469</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1874610994602331</v>
+        <v>0.4189171328914722</v>
       </c>
       <c r="K3" t="n">
-        <v>0.207717592690339</v>
+        <v>0.3782170101149706</v>
       </c>
       <c r="L3" t="n">
-        <v>0.842026189518942</v>
+        <v>0.8929251358399003</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5004874582417853</v>
+        <v>0.6274609168091378</v>
       </c>
       <c r="N3" t="n">
-        <v>1.024297651194941</v>
+        <v>1.038190140387449</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5217942454910026</v>
+        <v>0.6541732270608616</v>
       </c>
       <c r="P3" t="n">
-        <v>124.7686909559952</v>
+        <v>123.8642955755417</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.1201162729554</v>
+        <v>198.215720892502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_5</t>
+          <t>model_3_9_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9628126447888815</v>
+        <v>0.9403280579516116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7793197402991305</v>
+        <v>0.8093749730779427</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9761333594645955</v>
+        <v>0.8830298078286127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9234251093146532</v>
+        <v>0.935808369540957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9672116227232387</v>
+        <v>0.9468769087459667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2486720155287756</v>
+        <v>0.3990265512416019</v>
       </c>
       <c r="H4" t="n">
-        <v>1.475689912758876</v>
+        <v>1.274710432775337</v>
       </c>
       <c r="I4" t="n">
-        <v>0.260270185083999</v>
+        <v>0.3228312326736781</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1890081852356265</v>
+        <v>0.3965493572138233</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2246392953093868</v>
+        <v>0.3596902949437507</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9201815579463239</v>
+        <v>0.907815117949764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4986702472864966</v>
+        <v>0.6316854844316132</v>
       </c>
       <c r="N4" t="n">
-        <v>1.024121527704509</v>
+        <v>1.038706124571928</v>
       </c>
       <c r="O4" t="n">
-        <v>0.519899672103202</v>
+        <v>0.6585776432730862</v>
       </c>
       <c r="P4" t="n">
-        <v>124.783240915017</v>
+        <v>123.8374546396822</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.1346662319772</v>
+        <v>198.1888799566424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_2</t>
+          <t>model_3_9_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9623466892761252</v>
+        <v>0.9414858257841664</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7792888365868281</v>
+        <v>0.8093552558834425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9804503512850157</v>
+        <v>0.874964820872054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9242044367232857</v>
+        <v>0.9303465248848011</v>
       </c>
       <c r="F5" t="n">
-        <v>0.970787752373216</v>
+        <v>0.9427415599901592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2517878621881044</v>
+        <v>0.3912845524142772</v>
       </c>
       <c r="H5" t="n">
-        <v>1.47589656602534</v>
+        <v>1.274842281745749</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2131925807416483</v>
+        <v>0.345090148662019</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1870845878541389</v>
+        <v>0.4302903756629859</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2001385633053277</v>
+        <v>0.3876902621625025</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8034469646661405</v>
+        <v>0.8855424381583472</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5017846771156972</v>
+        <v>0.6255274193944477</v>
       </c>
       <c r="N5" t="n">
-        <v>1.024423769118189</v>
+        <v>1.037955140031892</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5231466896579902</v>
+        <v>0.6521574166583366</v>
       </c>
       <c r="P5" t="n">
-        <v>124.7583367254225</v>
+        <v>123.8766404562944</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.1097620423828</v>
+        <v>198.2280657732546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_6</t>
+          <t>model_3_9_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9628895628369306</v>
+        <v>0.9398911900736132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7792666772656127</v>
+        <v>0.809322125577881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9745259148074856</v>
+        <v>0.885598858785854</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9229467559537765</v>
+        <v>0.9375718451201993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9658461597159703</v>
+        <v>0.9482050272278419</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2481576641872961</v>
+        <v>0.4019478887533685</v>
       </c>
       <c r="H6" t="n">
-        <v>1.476044745508343</v>
+        <v>1.27506382425159</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2777996701322876</v>
+        <v>0.315740794743026</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1901888947323224</v>
+        <v>0.3856553340770063</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2339943373456145</v>
+        <v>0.3506977586061807</v>
       </c>
       <c r="L6" t="n">
-        <v>0.959720739571481</v>
+        <v>0.9153072269110964</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4981542574216305</v>
+        <v>0.6339936030855268</v>
       </c>
       <c r="N6" t="n">
-        <v>1.024071634916585</v>
+        <v>1.038989498330629</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5193617154815423</v>
+        <v>0.6609840233165613</v>
       </c>
       <c r="P6" t="n">
-        <v>124.7873819842504</v>
+        <v>123.8228656574651</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1388073012107</v>
+        <v>198.1742909744254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_1</t>
+          <t>model_3_9_14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9621132704820797</v>
+        <v>0.9418264658500387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7792155758533896</v>
+        <v>0.8092976281609855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9817233453231874</v>
+        <v>0.8721694361292632</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9242522529456059</v>
+        <v>0.9284934604478426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.971809489244945</v>
+        <v>0.9413264883146383</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2533487347386814</v>
+        <v>0.3890066907252861</v>
       </c>
       <c r="H7" t="n">
-        <v>1.476386460887178</v>
+        <v>1.275227638591171</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1993103423330084</v>
+        <v>0.3528052552678974</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1869665640825778</v>
+        <v>0.4417378417282158</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1931384532077931</v>
+        <v>0.3972715484980566</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7652228746992921</v>
+        <v>0.8782064428914234</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5033375951969824</v>
+        <v>0.6237040089058961</v>
       </c>
       <c r="N7" t="n">
-        <v>1.024575175903516</v>
+        <v>1.037734184313488</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5247657186769794</v>
+        <v>0.6502563798103073</v>
       </c>
       <c r="P7" t="n">
-        <v>124.7459766823934</v>
+        <v>123.8883174714073</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.0974019993537</v>
+        <v>198.2397427883676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_7</t>
+          <t>model_3_9_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9629271326905675</v>
+        <v>0.9394252802039558</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7791818043120534</v>
+        <v>0.8092342069990501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9728331468448361</v>
+        <v>0.8881024813445336</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9223559581484624</v>
+        <v>0.9392890654144194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9643925359587548</v>
+        <v>0.9494986280253452</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2479064344030323</v>
+        <v>0.405063430197086</v>
       </c>
       <c r="H8" t="n">
-        <v>1.476612291339597</v>
+        <v>1.27565173619306</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2962596218079113</v>
+        <v>0.308830935557842</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1916471484761309</v>
+        <v>0.3750470569698846</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2439533851420211</v>
+        <v>0.3419389375095623</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9995459726424953</v>
+        <v>0.9228203070119221</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4979020329372359</v>
+        <v>0.6364459365862005</v>
       </c>
       <c r="N8" t="n">
-        <v>1.024047265281794</v>
+        <v>1.039291710137975</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5190987532786704</v>
+        <v>0.6635407577313888</v>
       </c>
       <c r="P8" t="n">
-        <v>124.7894077692767</v>
+        <v>123.8074232127366</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.1408330862369</v>
+        <v>198.1588485296969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_0</t>
+          <t>model_3_9_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9618410249259225</v>
+        <v>0.9421465151806392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7791110519792158</v>
+        <v>0.8092178315482289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9829148783541076</v>
+        <v>0.8693261802259808</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9241980425105348</v>
+        <v>0.9266319080673865</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9727480134193552</v>
+        <v>0.9398977663283954</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2551692420262801</v>
+        <v>0.3868665193778689</v>
       </c>
       <c r="H9" t="n">
-        <v>1.477085412515067</v>
+        <v>1.275761238908104</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1863164514654917</v>
+        <v>0.3606524836174793</v>
       </c>
       <c r="J9" t="n">
-        <v>0.187100370554411</v>
+        <v>0.453237742799598</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1867084488379292</v>
+        <v>0.406945259505703</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7273737571220407</v>
+        <v>0.8709200496477575</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5051427936992471</v>
+        <v>0.621985947894218</v>
       </c>
       <c r="N9" t="n">
-        <v>1.024751767615618</v>
+        <v>1.037526584747694</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5266477682167615</v>
+        <v>0.6484651773844855</v>
       </c>
       <c r="P9" t="n">
-        <v>124.7316565195012</v>
+        <v>123.8993511132324</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.0830818364615</v>
+        <v>198.2507764301926</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_8</t>
+          <t>model_3_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9629254145291828</v>
+        <v>0.9424470348955475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7790650314819535</v>
+        <v>0.8091174080288149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9710547602439147</v>
+        <v>0.8664376786518091</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9216506886335591</v>
+        <v>0.9247652968302634</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9628501432580376</v>
+        <v>0.9384575361566355</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2479179237561239</v>
+        <v>0.384856942660511</v>
       </c>
       <c r="H10" t="n">
-        <v>1.477393151792165</v>
+        <v>1.276432771444832</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3156532607696286</v>
+        <v>0.3686245875053094</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1933879503228042</v>
+        <v>0.4647688953962213</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2545206055462165</v>
+        <v>0.4166968911039085</v>
       </c>
       <c r="L10" t="n">
-        <v>1.039638173401821</v>
+        <v>0.8636897590580914</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4979135705683507</v>
+        <v>0.6203683926994596</v>
       </c>
       <c r="N10" t="n">
-        <v>1.024048379764854</v>
+        <v>1.037331653040726</v>
       </c>
       <c r="O10" t="n">
-        <v>0.519110782090628</v>
+        <v>0.6467787595162854</v>
       </c>
       <c r="P10" t="n">
-        <v>124.7893150803806</v>
+        <v>123.9097671825031</v>
       </c>
       <c r="Q10" t="n">
-        <v>199.1407403973409</v>
+        <v>198.2611924994633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_9</t>
+          <t>model_3_9_7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9628843618261351</v>
+        <v>0.9389272765430593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7789163847420491</v>
+        <v>0.8091070674408749</v>
       </c>
       <c r="D11" t="n">
-        <v>0.969190254786683</v>
+        <v>0.8905361301279129</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9208294563326912</v>
+        <v>0.9409442020037573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9612183229296044</v>
+        <v>0.9507496983794286</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2481924433704338</v>
+        <v>0.4083935829705962</v>
       </c>
       <c r="H11" t="n">
-        <v>1.478387153226361</v>
+        <v>1.276501919004002</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3359860419888346</v>
+        <v>0.302114200105429</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1954149806646658</v>
+        <v>0.364822307327144</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2657005113267502</v>
+        <v>0.3334680851168855</v>
       </c>
       <c r="L11" t="n">
-        <v>1.079974555910982</v>
+        <v>0.9303463513998516</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4981891642442997</v>
+        <v>0.6390567916629916</v>
       </c>
       <c r="N11" t="n">
-        <v>1.02407500854521</v>
+        <v>1.039614739539637</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5193981083599197</v>
+        <v>0.6662627623140139</v>
       </c>
       <c r="P11" t="n">
-        <v>124.7871017048052</v>
+        <v>123.7910478108476</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.1385270217655</v>
+        <v>198.1424731278078</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_10</t>
+          <t>model_3_9_17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9628039945681001</v>
+        <v>0.9427288975018576</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7787358212042415</v>
+        <v>0.8089977569410486</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9672395943826009</v>
+        <v>0.8635074435897144</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9198900208352961</v>
+        <v>0.9228958803591311</v>
       </c>
       <c r="F12" t="n">
-        <v>0.959496642673738</v>
+        <v>0.9370075431781388</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2487298595949717</v>
+        <v>0.382972126114257</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4795945824351</v>
+        <v>1.277232878819669</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3572583590396292</v>
+        <v>0.3767118735015023</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1977337694597838</v>
+        <v>0.476317377568916</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2774960642497064</v>
+        <v>0.4265146255352091</v>
       </c>
       <c r="L12" t="n">
-        <v>1.120540628209771</v>
+        <v>0.8565180182674733</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4987282422271388</v>
+        <v>0.6188474174740144</v>
       </c>
       <c r="N12" t="n">
-        <v>1.02412713865853</v>
+        <v>1.037148823242038</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5199601360085335</v>
+        <v>0.6451930332266401</v>
       </c>
       <c r="P12" t="n">
-        <v>124.7827757453475</v>
+        <v>123.919586140439</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.1342010623078</v>
+        <v>198.2710114573992</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_11</t>
+          <t>model_3_9_6</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9626843851864213</v>
+        <v>0.9383936986651757</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7785233735354566</v>
+        <v>0.80893575974973</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9652024838926353</v>
+        <v>0.8928963942819872</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9188309038826177</v>
+        <v>0.9425176529343667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9576846068224961</v>
+        <v>0.9519485071226945</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2495296880810077</v>
+        <v>0.4119616206969035</v>
       </c>
       <c r="H13" t="n">
-        <v>1.481015220974495</v>
+        <v>1.277647454323487</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3794734304684455</v>
+        <v>0.2956000021533657</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2003479654630221</v>
+        <v>0.3551021779165232</v>
       </c>
       <c r="K13" t="n">
-        <v>0.289910660228716</v>
+        <v>0.3253510900349444</v>
       </c>
       <c r="L13" t="n">
-        <v>1.161317119305884</v>
+        <v>0.9378666861331681</v>
       </c>
       <c r="M13" t="n">
-        <v>0.499529466679402</v>
+        <v>0.6418423643675318</v>
       </c>
       <c r="N13" t="n">
-        <v>1.024204723122321</v>
+        <v>1.039960844109075</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5207954702444927</v>
+        <v>0.6691669226155169</v>
       </c>
       <c r="P13" t="n">
-        <v>124.7763547611294</v>
+        <v>123.77365017524</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.1277800780897</v>
+        <v>198.1250754922002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_12</t>
+          <t>model_3_9_18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9625256299905551</v>
+        <v>0.9429929145458591</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7782791671149528</v>
+        <v>0.8088600922259985</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9630789512600394</v>
+        <v>0.8605376749677578</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9176500289587953</v>
+        <v>0.9210255751387746</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9557818263435928</v>
+        <v>0.9355490653357237</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2505912848067657</v>
+        <v>0.3812066429253326</v>
       </c>
       <c r="H14" t="n">
-        <v>1.482648230432871</v>
+        <v>1.278153443403096</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4026309515488751</v>
+        <v>0.3849082699268164</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2032626940946182</v>
+        <v>0.4878713500669231</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3029469645966137</v>
+        <v>0.4363898099968697</v>
       </c>
       <c r="L14" t="n">
-        <v>1.202290617819538</v>
+        <v>0.8494046698446267</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5005909356018801</v>
+        <v>0.6174193412303607</v>
       </c>
       <c r="N14" t="n">
-        <v>1.024307699465586</v>
+        <v>1.036977568943227</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5219021280965445</v>
+        <v>0.6437041608207688</v>
       </c>
       <c r="P14" t="n">
-        <v>124.7678640288646</v>
+        <v>123.9288273620041</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.1192893458249</v>
+        <v>198.2802526789644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_13</t>
+          <t>model_3_9_5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9623278412328029</v>
+        <v>0.9378202211527847</v>
       </c>
       <c r="C15" t="n">
-        <v>0.778003201933659</v>
+        <v>0.8087144301709404</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9608689372139037</v>
+        <v>0.8951791092124348</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9163463577518273</v>
+        <v>0.9439844066012666</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9537881456338656</v>
+        <v>0.9530828615108534</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2519138991405881</v>
+        <v>0.415796467462884</v>
       </c>
       <c r="H15" t="n">
-        <v>1.484493610870885</v>
+        <v>1.279127486235982</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4267315686412854</v>
+        <v>0.289299835750636</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2064805181981545</v>
+        <v>0.3460411800942089</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3166060434197199</v>
+        <v>0.3176705079224225</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243442002421977</v>
+        <v>0.945375390661514</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5019102500852002</v>
+        <v>0.6448228186586482</v>
       </c>
       <c r="N15" t="n">
-        <v>1.02443599487602</v>
+        <v>1.040332829522518</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5232776085287769</v>
+        <v>0.672274261016197</v>
       </c>
       <c r="P15" t="n">
-        <v>124.7573358398605</v>
+        <v>123.7551187987091</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.1087611568208</v>
+        <v>198.1065441156694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_14</t>
+          <t>model_3_9_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9620912096104508</v>
+        <v>0.9432396843184452</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7776956465485286</v>
+        <v>0.8087054841046621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9585728178462584</v>
+        <v>0.8575314464521704</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9149184333296609</v>
+        <v>0.9191555096321845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9517035448304882</v>
+        <v>0.9340832659658121</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2534962558888451</v>
+        <v>0.3795564923197791</v>
       </c>
       <c r="H16" t="n">
-        <v>1.486550235147415</v>
+        <v>1.279187308622378</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4517711803916478</v>
+        <v>0.3932052936331966</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2100050338882427</v>
+        <v>0.4994238417123751</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3308880327819678</v>
+        <v>0.4463145676727859</v>
       </c>
       <c r="L16" t="n">
-        <v>1.284749259658726</v>
+        <v>0.8423539187552962</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5034841168188378</v>
+        <v>0.6160815630415984</v>
       </c>
       <c r="N16" t="n">
-        <v>1.024589485658086</v>
+        <v>1.036817502063711</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5249184780276186</v>
+        <v>0.6423094306449284</v>
       </c>
       <c r="P16" t="n">
-        <v>124.7448124514584</v>
+        <v>123.9375036667146</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.0962377684187</v>
+        <v>198.2889289836749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_15</t>
+          <t>model_3_9_20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9618158732498054</v>
+        <v>0.9434697801252255</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7773566501381846</v>
+        <v>0.8085348551031156</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9561909265409652</v>
+        <v>0.8544909916610947</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9133649207009686</v>
+        <v>0.9172863171170154</v>
       </c>
       <c r="F17" t="n">
-        <v>0.94952803845198</v>
+        <v>0.9326108891949746</v>
       </c>
       <c r="G17" t="n">
-        <v>0.255337431400288</v>
+        <v>0.3780178406003447</v>
       </c>
       <c r="H17" t="n">
-        <v>1.488817105704321</v>
+        <v>1.280328305541393</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4777461511865112</v>
+        <v>0.4015967799586474</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2138395362957784</v>
+        <v>0.510970940377709</v>
       </c>
       <c r="K17" t="n">
-        <v>0.34579283321427</v>
+        <v>0.4562838601681781</v>
       </c>
       <c r="L17" t="n">
-        <v>1.326195862741992</v>
+        <v>0.835365030780217</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5053092433354925</v>
+        <v>0.6148315546556997</v>
       </c>
       <c r="N17" t="n">
-        <v>1.024768082216343</v>
+        <v>1.036668250729583</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5268213039586201</v>
+        <v>0.6410062068141679</v>
       </c>
       <c r="P17" t="n">
-        <v>124.7303386963357</v>
+        <v>123.9456277742418</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.081764013296</v>
+        <v>198.2970530912021</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_16</t>
+          <t>model_3_9_4</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9615020727098412</v>
+        <v>0.9372015604070221</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7769863635520347</v>
+        <v>0.8084360502508636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9537236128175729</v>
+        <v>0.8973807213586095</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9116846424944319</v>
+        <v>0.9453129180659922</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9472617218512038</v>
+        <v>0.9541376219834837</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2574358170559473</v>
+        <v>0.4199334547184698</v>
       </c>
       <c r="H18" t="n">
-        <v>1.491293213810918</v>
+        <v>1.280989014043357</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5046526694497321</v>
+        <v>0.2832235085272225</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2179869315015185</v>
+        <v>0.3378341854498799</v>
       </c>
       <c r="K18" t="n">
-        <v>0.361319791436358</v>
+        <v>0.3105288469885512</v>
       </c>
       <c r="L18" t="n">
-        <v>1.367764310080649</v>
+        <v>0.9528493826867347</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5073813329793946</v>
+        <v>0.6480227270076797</v>
       </c>
       <c r="N18" t="n">
-        <v>1.024971628512535</v>
+        <v>1.040734122979229</v>
       </c>
       <c r="O18" t="n">
-        <v>0.52898160674848</v>
+        <v>0.6756103960883703</v>
       </c>
       <c r="P18" t="n">
-        <v>124.713969688198</v>
+        <v>123.7353180428087</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.0653950051582</v>
+        <v>198.0867433597689</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_17</t>
+          <t>model_3_9_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9611499834555125</v>
+        <v>0.9436838416727278</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7765850263737011</v>
+        <v>0.8083490892278425</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9511712934060492</v>
+        <v>0.8514192671819852</v>
       </c>
       <c r="E19" t="n">
-        <v>0.909876384493823</v>
+        <v>0.9154188509040551</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9449046990057334</v>
+        <v>0.931132926874364</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2597902395208651</v>
+        <v>0.3765864100465345</v>
       </c>
       <c r="H19" t="n">
-        <v>1.493976957370422</v>
+        <v>1.281570522804718</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5324861906629628</v>
+        <v>0.4100745688860336</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2224502165297307</v>
+        <v>0.5225073746616213</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3774681950784579</v>
+        <v>0.4662909717738274</v>
       </c>
       <c r="L19" t="n">
-        <v>1.409440022297096</v>
+        <v>0.8284407723463976</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5096962227845769</v>
+        <v>0.6136663670485246</v>
       </c>
       <c r="N19" t="n">
-        <v>1.02520001073156</v>
+        <v>1.036529399996069</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5313950462051515</v>
+        <v>0.6397914147582844</v>
       </c>
       <c r="P19" t="n">
-        <v>124.6957614893103</v>
+        <v>123.9532154986391</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.0471868062705</v>
+        <v>198.3046408155994</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_18</t>
+          <t>model_3_9_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9607600108878617</v>
+        <v>0.9438823534769154</v>
       </c>
       <c r="C20" t="n">
-        <v>0.776152803342719</v>
+        <v>0.8081489516689204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9485347614205459</v>
+        <v>0.8483181321005986</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9079392676875195</v>
+        <v>0.9135534705573607</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9424574280658496</v>
+        <v>0.929649921932451</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2623979878764048</v>
+        <v>0.3752589606978695</v>
       </c>
       <c r="H20" t="n">
-        <v>1.496867234768804</v>
+        <v>1.282908843582778</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5612380657678354</v>
+        <v>0.4186335294419395</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2272315610262357</v>
+        <v>0.5340309233260052</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3942349052674448</v>
+        <v>0.4763322263839723</v>
       </c>
       <c r="L20" t="n">
-        <v>1.451201565856846</v>
+        <v>0.8215824553830994</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5122479749851675</v>
+        <v>0.6125838397296075</v>
       </c>
       <c r="N20" t="n">
-        <v>1.025452965910576</v>
+        <v>1.036400635582541</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5340554317797764</v>
+        <v>0.6386628020102605</v>
       </c>
       <c r="P20" t="n">
-        <v>124.6757857801911</v>
+        <v>123.9602778589577</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.0272110971513</v>
+        <v>198.311703175918</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_19</t>
+          <t>model_3_9_3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9603324155668738</v>
+        <v>0.9365313889903087</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7756900888345087</v>
+        <v>0.8080923319779471</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9458148138408375</v>
+        <v>0.8994978426278437</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9058729517104557</v>
+        <v>0.9464643047278331</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9399205422608375</v>
+        <v>0.9550943602543442</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2652573197567468</v>
+        <v>0.4244148940678874</v>
       </c>
       <c r="H21" t="n">
-        <v>1.49996140881581</v>
+        <v>1.283287459717027</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5908996035506384</v>
+        <v>0.2773803714306782</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2323318051069361</v>
+        <v>0.3307213946172982</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4116155836312447</v>
+        <v>0.3040508830239882</v>
       </c>
       <c r="L21" t="n">
-        <v>1.493029135288457</v>
+        <v>0.9602672902219055</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5150313774487403</v>
+        <v>0.6514713301964158</v>
       </c>
       <c r="N21" t="n">
-        <v>1.025730325037703</v>
+        <v>1.041168828763043</v>
       </c>
       <c r="O21" t="n">
-        <v>0.536957329448661</v>
+        <v>0.6792058134544435</v>
       </c>
       <c r="P21" t="n">
-        <v>124.6541098123578</v>
+        <v>123.7140875568949</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.005535129318</v>
+        <v>198.0655128738551</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_20</t>
+          <t>model_3_9_23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9598675197522339</v>
+        <v>0.9440656755591953</v>
       </c>
       <c r="C22" t="n">
-        <v>0.775197142772139</v>
+        <v>0.8079351574186056</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9430122380660073</v>
+        <v>0.8451902023868957</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9036759443979515</v>
+        <v>0.9116900837425834</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9372943103069205</v>
+        <v>0.9281623654076452</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2683660802098912</v>
+        <v>0.3740330850895429</v>
       </c>
       <c r="H22" t="n">
-        <v>1.503257741404684</v>
+        <v>1.284338486719066</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6214622172768944</v>
+        <v>0.4272664416945906</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2377546318503933</v>
+        <v>0.5455421567742991</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4296083891448329</v>
+        <v>0.4864042992344448</v>
       </c>
       <c r="L22" t="n">
-        <v>1.534913819276084</v>
+        <v>0.8147872706186295</v>
       </c>
       <c r="M22" t="n">
-        <v>0.518040616370851</v>
+        <v>0.6115824434117962</v>
       </c>
       <c r="N22" t="n">
-        <v>1.026031879079632</v>
+        <v>1.036281723961603</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5400946779016692</v>
+        <v>0.6376187741780238</v>
       </c>
       <c r="P22" t="n">
-        <v>124.6308065192569</v>
+        <v>123.9668220453479</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9822318362171</v>
+        <v>198.3182473623081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_21</t>
+          <t>model_3_9_24</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.959365674555035</v>
+        <v>0.9442343859497798</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7746742835217058</v>
+        <v>0.8077083475792566</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9401276659949453</v>
+        <v>0.8420369527360958</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9013486255650767</v>
+        <v>0.9098290653789222</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9345793330562179</v>
+        <v>0.9266707288907017</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2717219213543459</v>
+        <v>0.3729049179308643</v>
       </c>
       <c r="H23" t="n">
-        <v>1.506754103619877</v>
+        <v>1.285855165159156</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6529190159708597</v>
+        <v>0.4359692355671014</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2434991037670937</v>
+        <v>0.5570387589106766</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4482092052581422</v>
+        <v>0.496503997238889</v>
       </c>
       <c r="L23" t="n">
-        <v>1.576833176254756</v>
+        <v>0.8080631498454912</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5212695285112549</v>
+        <v>0.6106594123821104</v>
       </c>
       <c r="N23" t="n">
-        <v>1.026357400288626</v>
+        <v>1.036172290194737</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5434610515166597</v>
+        <v>0.6366564478064666</v>
       </c>
       <c r="P23" t="n">
-        <v>124.6059521672045</v>
+        <v>123.9728636070947</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.9573774841647</v>
+        <v>198.3242889240549</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_22</t>
+          <t>model_3_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9588273398847105</v>
+        <v>0.9358021175044193</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7741218714778673</v>
+        <v>0.8076736656675384</v>
       </c>
       <c r="D24" t="n">
-        <v>0.937162498442893</v>
+        <v>0.9015270785314545</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8988900191705882</v>
+        <v>0.9473912509875643</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9317766119798745</v>
+        <v>0.9559308177364716</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2753217677736085</v>
+        <v>0.429291535852016</v>
       </c>
       <c r="H24" t="n">
-        <v>1.510448085500649</v>
+        <v>1.286087083262511</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6852547234799621</v>
+        <v>0.2717797930612034</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2495676299990205</v>
+        <v>0.3249951038089863</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4674111707053546</v>
+        <v>0.2983873263417249</v>
       </c>
       <c r="L24" t="n">
-        <v>1.618772062212373</v>
+        <v>0.967612503180993</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5247111279300339</v>
+        <v>0.6552034308915178</v>
       </c>
       <c r="N24" t="n">
-        <v>1.026706590345053</v>
+        <v>1.041641869726863</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5470491669477892</v>
+        <v>0.6830967974026496</v>
       </c>
       <c r="P24" t="n">
-        <v>124.5796296013528</v>
+        <v>123.6912380402143</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.931054918313</v>
+        <v>198.0426633571745</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_23</t>
+          <t>model_3_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9582529115655515</v>
+        <v>0.9350050692533212</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7735402980675583</v>
+        <v>0.8071688918018564</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9341175433746008</v>
+        <v>0.903466728484567</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8963007822892356</v>
+        <v>0.9480374816435017</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9288868509271998</v>
+        <v>0.9566209326045761</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2791629725888242</v>
+        <v>0.4346214011771795</v>
       </c>
       <c r="H25" t="n">
-        <v>1.514337069573283</v>
+        <v>1.289462508426597</v>
       </c>
       <c r="I25" t="n">
-        <v>0.718460528797272</v>
+        <v>0.2664264669385855</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2559585887024491</v>
+        <v>0.321002957957708</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4872094632834214</v>
+        <v>0.2937146385407351</v>
       </c>
       <c r="L25" t="n">
-        <v>1.660711030701147</v>
+        <v>0.9748440383239015</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5283587536786195</v>
+        <v>0.6592582204092562</v>
       </c>
       <c r="N25" t="n">
-        <v>1.027079192498021</v>
+        <v>1.042158873997846</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5508520796761183</v>
+        <v>0.6873242077047296</v>
       </c>
       <c r="P25" t="n">
-        <v>124.5519190731124</v>
+        <v>123.666559937965</v>
       </c>
       <c r="Q25" t="n">
-        <v>198.9033443900727</v>
+        <v>198.0179852549252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_24</t>
+          <t>model_3_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9576428177272969</v>
+        <v>0.9341303030803655</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7729300620948718</v>
+        <v>0.8065656909674805</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9309940709548793</v>
+        <v>0.9053164227001929</v>
       </c>
       <c r="E26" t="n">
-        <v>0.893580421114535</v>
+        <v>0.9483384287855643</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9259109523214262</v>
+        <v>0.957135195763101</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2832426728944566</v>
+        <v>0.4404709666036619</v>
       </c>
       <c r="H26" t="n">
-        <v>1.518417720332517</v>
+        <v>1.293496115183552</v>
       </c>
       <c r="I26" t="n">
-        <v>0.752522580537639</v>
+        <v>0.2613214136543699</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2626731987294932</v>
+        <v>0.319143830920634</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5075979003222673</v>
+        <v>0.2902326222875019</v>
       </c>
       <c r="L26" t="n">
-        <v>1.702639194487292</v>
+        <v>0.9819437934224653</v>
       </c>
       <c r="M26" t="n">
-        <v>0.532205479955305</v>
+        <v>0.6636798675593993</v>
       </c>
       <c r="N26" t="n">
-        <v>1.027474929041753</v>
+        <v>1.042726289893817</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5548625690542234</v>
+        <v>0.6919340935281257</v>
       </c>
       <c r="P26" t="n">
-        <v>124.5229024947787</v>
+        <v>123.6398214917438</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.8743278117389</v>
+        <v>197.9912468087041</v>
       </c>
     </row>
   </sheetData>
